--- a/CEKLIS DNS PTS 22 23.xlsx
+++ b/CEKLIS DNS PTS 22 23.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SMK\PENILAIAN\2022-2023\GENAP\PAT\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="480" yWindow="144" windowWidth="14364" windowHeight="7248"/>
+    <workbookView xWindow="480" yWindow="140" windowWidth="14360" windowHeight="7250"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
   <si>
     <t>MAPEL</t>
   </si>
@@ -122,7 +117,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -380,7 +375,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -415,7 +410,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -627,31 +622,31 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection sqref="A1:V5"/>
+      <selection activeCell="H11" sqref="H11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="10.77734375" customWidth="1"/>
-    <col min="2" max="2" width="11.109375" customWidth="1"/>
-    <col min="4" max="5" width="14.44140625" customWidth="1"/>
-    <col min="6" max="6" width="14.77734375" customWidth="1"/>
+    <col min="1" max="1" width="10.81640625" customWidth="1"/>
+    <col min="2" max="2" width="11.08984375" customWidth="1"/>
+    <col min="4" max="5" width="14.453125" customWidth="1"/>
+    <col min="6" max="6" width="14.81640625" customWidth="1"/>
     <col min="7" max="7" width="13" customWidth="1"/>
-    <col min="8" max="8" width="10.88671875" customWidth="1"/>
-    <col min="10" max="10" width="15.21875" customWidth="1"/>
-    <col min="11" max="11" width="13.44140625" customWidth="1"/>
-    <col min="14" max="14" width="13.77734375" customWidth="1"/>
-    <col min="15" max="15" width="14.6640625" customWidth="1"/>
-    <col min="16" max="16" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="11.6640625" customWidth="1"/>
-    <col min="18" max="18" width="18.21875" customWidth="1"/>
-    <col min="19" max="19" width="10.6640625" customWidth="1"/>
+    <col min="8" max="8" width="10.90625" customWidth="1"/>
+    <col min="10" max="10" width="15.1796875" customWidth="1"/>
+    <col min="11" max="11" width="13.453125" customWidth="1"/>
+    <col min="14" max="14" width="13.81640625" customWidth="1"/>
+    <col min="15" max="15" width="14.6328125" customWidth="1"/>
+    <col min="16" max="16" width="14.54296875" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="11.6328125" customWidth="1"/>
+    <col min="18" max="18" width="18.1796875" customWidth="1"/>
+    <col min="19" max="19" width="10.6328125" customWidth="1"/>
     <col min="20" max="20" width="12" customWidth="1"/>
-    <col min="21" max="21" width="15.33203125" customWidth="1"/>
-    <col min="22" max="22" width="14.77734375" customWidth="1"/>
+    <col min="21" max="21" width="15.36328125" customWidth="1"/>
+    <col min="22" max="22" width="14.81640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:22" ht="25.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="A1" s="5" t="s">
         <v>31</v>
       </c>
@@ -677,7 +672,7 @@
       <c r="U1" s="6"/>
       <c r="V1" s="7"/>
     </row>
-    <row r="2" spans="1:22" ht="25.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:22" ht="26" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="11" t="s">
         <v>0</v>
       </c>
@@ -715,7 +710,7 @@
       <c r="U2" s="9"/>
       <c r="V2" s="10"/>
     </row>
-    <row r="3" spans="1:22" ht="52.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:22" ht="52" x14ac:dyDescent="0.35">
       <c r="A3" s="12"/>
       <c r="B3" s="3" t="s">
         <v>4</v>
@@ -781,23 +776,39 @@
         <v>29</v>
       </c>
     </row>
-    <row r="4" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
+      <c r="D4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="I4" s="1"/>
       <c r="J4" s="1"/>
       <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
+      <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="O4" s="1"/>
       <c r="P4" s="1"/>
       <c r="Q4" s="1"/>
@@ -807,7 +818,7 @@
       <c r="U4" s="2"/>
       <c r="V4" s="2"/>
     </row>
-    <row r="5" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:22" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -818,7 +829,9 @@
         <v>27</v>
       </c>
       <c r="F5" s="2"/>
-      <c r="G5" s="1"/>
+      <c r="G5" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="H5" s="2"/>
       <c r="I5" s="1"/>
       <c r="J5" s="1"/>
@@ -858,7 +871,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -870,7 +883,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/CEKLIS DNS PTS 22 23.xlsx
+++ b/CEKLIS DNS PTS 22 23.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>MAPEL</t>
   </si>
@@ -622,7 +622,7 @@
   <dimension ref="A1:V5"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="H11" sqref="H11"/>
+      <selection sqref="A1:V5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -780,8 +780,12 @@
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="B4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="D4" s="1" t="s">
         <v>27</v>
       </c>
@@ -797,9 +801,15 @@
       <c r="H4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
+      <c r="I4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="L4" s="1" t="s">
         <v>27</v>
       </c>
@@ -809,9 +819,15 @@
       <c r="N4" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="O4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="P4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q4" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="R4" s="2"/>
       <c r="S4" s="2"/>
       <c r="T4" s="2"/>
@@ -822,9 +838,15 @@
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
+      <c r="B5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="E5" s="1" t="s">
         <v>27</v>
       </c>
@@ -833,8 +855,12 @@
         <v>27</v>
       </c>
       <c r="H5" s="2"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
+      <c r="I5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="J5" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="K5" s="2"/>
       <c r="L5" s="2"/>
       <c r="M5" s="2"/>
@@ -842,8 +868,12 @@
       <c r="O5" s="2"/>
       <c r="P5" s="2"/>
       <c r="Q5" s="2"/>
-      <c r="R5" s="1"/>
-      <c r="S5" s="1"/>
+      <c r="R5" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="S5" s="1" t="s">
+        <v>27</v>
+      </c>
       <c r="T5" s="1" t="s">
         <v>27</v>
       </c>
